--- a/src/conf/input/bills.xlsx
+++ b/src/conf/input/bills.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smananghat/git_pvt/costBuddy/src/conf/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smananghat/git_pub/costBuddy/src/conf/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA460C97-7151-1E4E-8EBA-03A789C023E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EB5F42-08E8-CF4D-9461-13E77D5AE9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>AWS Account ID</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Payroll</t>
-  </si>
-  <si>
-    <t>933764269496</t>
   </si>
   <si>
     <t>Personal</t>
@@ -600,7 +597,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,16 +728,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="15">
         <v>5000</v>
